--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2299865.390111881</v>
+        <v>2292848.375220167</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9875590.198290356</v>
+        <v>9875590.198290354</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.4106407312797</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.43083010065379</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.5450396847797</v>
       </c>
       <c r="I4" t="n">
-        <v>90.04875807993751</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>228.1929797266965</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>344.4133237467569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5548462458077</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17.51547160264163</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>202.7967375907931</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>117.3199665042505</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.985413340909176</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>277.6772350718102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>39.55960582285816</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206908</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>80.37630218413348</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174208</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>283.4048578957015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40651618986697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>55.1491369431212</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>256.3974098248936</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113184</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527406</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>115.216550257371</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002061</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>173.6920981845369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065094</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>194.8026695426856</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2680.552292936754</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2680.552292936754</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2680.552292936754</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2680.552292936754</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2349.489405593183</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1996.720750323069</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1996.720750323069</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1996.720750323069</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9013233152508</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.9013233152508</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511405</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1258.850788876759</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1258.850788876759</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>900.585090270009</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>900.585090270009</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>489.5991854804014</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>71.63537737858832</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>71.63537737858832</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2035.589960916693</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1645.450628940881</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>523.2837947207846</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>523.2837947207846</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>523.2837947207846</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>268.5993065148977</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5993065148977</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5993065148977</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5993065148977</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>510.5251492115494</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>404.3099544724604</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>254.1933150601247</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>254.1933150601247</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>107.3033675622143</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>394.5250474102529</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X16" t="n">
-        <v>394.5250474102529</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1259.037062672588</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1259.037062672588</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.352574466701</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>714.9354044297402</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4741.167820987512</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4452.03918220107</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4197.354693995183</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958222</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060205</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550611</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610199</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514099</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207837</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014301</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231272</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141876</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465309</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121739</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851624</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590544</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614733</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126487</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571619</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636267</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307623</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.9398668627157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>289.9398668627157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>289.9398668627157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>289.9398668627157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>289.9398668627157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>289.9398668627157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688079</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799376</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557905</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557905</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771464</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345029</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929554</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,67 +6211,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619133</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.73288364333</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899134</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207837</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014301</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231272</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141876</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465309</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121739</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126487</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571619</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636267</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307623</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028601</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688079</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799376</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471463</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974695</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980092</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585775</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557931</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557931</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473483</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262989</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765473</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706604</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>245.1301850426791</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.1301850426791</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899126</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6502,13 +6502,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033637</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.18260969767</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.1014931486262</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C31" t="n">
-        <v>415.509052552801</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119731</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119731</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913844</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7395088768833</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>615.749957978866</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.749957978866</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207837</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001782</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281744</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945778</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164475</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.3337308726216</v>
+        <v>299.8132378906419</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>299.8132378906419</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>299.8132378906419</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6858,52 +6858,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557905</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557905</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557905</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771464</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655767</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W34" t="n">
-        <v>696.115860914169</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X34" t="n">
-        <v>468.1263100161517</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.3337308726216</v>
+        <v>481.4617027208816</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6928,58 +6928,58 @@
         <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823793</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7001,37 +7001,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571618</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636266</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307623</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.5974452556101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>213.5974452556101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>213.5974452556101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>213.5974452556101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>213.5974452556101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471158</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974664</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119726</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119726</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333284</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273973</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>844.0280401273973</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>616.0384892293799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>395.2459100858498</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7201,7 +7201,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7332,37 +7332,37 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974656</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980053</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585735</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557891</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557891</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011507</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,46 +7396,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115527</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395488</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.90154205952</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278216</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.9162705579</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352013</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150523</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>779.3680484922877</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.5754693487576</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776697</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445196</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776697</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445196</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928251</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776692</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445196</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987297426</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776692</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445196</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928249</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776697</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445196</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928411</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>62.5120136776868</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>156.5081551224684</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>8.845763264780828</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>181.9879552355311</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518765</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>68.53752618340262</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>3.118140440889533</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>154.4576421095227</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8403049087609</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>91.28482570344798</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>30.1255885116974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>51.27701820600662</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318339721</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182211</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>52.01755720450024</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518798</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454843</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327929</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327924</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74225806404138e-09</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687034</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687053</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687061</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687078</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26484,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871678</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871678</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594792</v>
+        <v>-263730.5861594793</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550646</v>
+        <v>326237.2930550649</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550649</v>
+        <v>326237.2930550645</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.2863796915</v>
+        <v>-92855.87763941314</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.750097205</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972052</v>
+        <v>432304.1588374829</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972048</v>
+        <v>432304.1588374829</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972034</v>
+        <v>432304.1588374828</v>
       </c>
       <c r="J6" t="n">
-        <v>256855.5309046125</v>
+        <v>255880.9396448903</v>
       </c>
       <c r="K6" t="n">
-        <v>433278.7500972053</v>
+        <v>432304.1588374829</v>
       </c>
       <c r="L6" t="n">
-        <v>433278.7500972046</v>
+        <v>432304.1588374831</v>
       </c>
       <c r="M6" t="n">
-        <v>298477.7348633678</v>
+        <v>297503.1436036456</v>
       </c>
       <c r="N6" t="n">
-        <v>433278.750097205</v>
+        <v>432304.1588374829</v>
       </c>
       <c r="O6" t="n">
-        <v>433278.7500972046</v>
+        <v>432304.1588374833</v>
       </c>
       <c r="P6" t="n">
-        <v>433278.750097205</v>
+        <v>432304.1588374829</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26810,10 +26810,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.3232009322009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>38.04757247415792</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>11.62584915701547</v>
       </c>
       <c r="I4" t="n">
-        <v>44.91686371240071</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.82461490929671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>16.58279707802029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>134.4158446422196</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>9.348801359225803</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.844391802791506e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-7.787548383930698e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>2.582870214003681e-11</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-5.030983629694669e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-8.763890946283936e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.763890946283936e-12</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956553</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458556</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361504</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298639</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171324</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263755</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956553</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361504</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298639</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171324</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956553</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361504</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298639</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171324</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956553</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361504</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298639</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171324</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956553</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361504</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298639</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171324</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221128</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408113</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034985</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005184</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560251</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504672</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.502597509195</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209237</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556574</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.309841178973</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.225699971875</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221128</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034985</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005184</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560251</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504672</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980137</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.502597509195</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209237</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556574</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789988</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.225699971875</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034985</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005184</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336943</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504672</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209237</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556574</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.309841178973</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.225699971875</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221128</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349031</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005184</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560251</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504672</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091946</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209237</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556574</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.309841178973</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.225699971875</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221052</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034985</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005184</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560251</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504672</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.502597509195</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209237</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556574</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799239</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.309841178973</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.225699971875</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778055944</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350593</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.666887533704</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.093414931524</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221192</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292848.375220167</v>
+        <v>2297787.638069202</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>303.9983298142755</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>228.1929797266965</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>56.57756245340234</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.72683757586869</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>126.6305324976355</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.3199665042505</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.75208669539932</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.985413340909176</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>83.15066848647925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.37433807241459</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.4114959762603</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>55.1491369431212</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113184</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>106.2835578420354</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>55.51369213499292</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>194.8026695426856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>778.9758099365973</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>361.0120018347842</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2016.810287515053</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1685.747400171482</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1332.978744901368</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>959.5129866402885</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>959.5129866402885</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1315.737983561874</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>946.7754666214621</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>588.5097680147117</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>202.7215154164674</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>195.776014667264</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>181.8526106058549</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>181.8526106058549</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2092.477155601807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550796</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.5251492115494</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5269,22 +5269,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.2461374003673</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>404.3099544724604</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>254.1933150601247</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>254.1933150601247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>107.3033675622143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W16" t="n">
-        <v>754.894602230607</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X16" t="n">
-        <v>754.894602230607</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y16" t="n">
-        <v>754.894602230607</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5706,13 +5706,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5743,37 +5743,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>626.428715221413</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>626.428715221413</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>626.428715221413</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>478.5156216390199</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>331.6256741411095</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>331.6256741411095</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>181.2076656890528</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6150,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6411,19 +6411,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1307.591527147538</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1083.806111937044</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>794.6774731506025</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>794.6774731506025</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>794.6774731506025</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.900558318119</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>299.8132378906419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>299.8132378906419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>299.8132378906419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188989</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188989</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X34" t="n">
-        <v>481.4617027208816</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.4617027208816</v>
+        <v>105.8287400488911</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7165,10 +7165,10 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,16 +7402,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>153.2915279602787</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.5120136776868</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>209.9575686936378</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>156.5081551224684</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>27.26857697779275</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.4576421095227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>8.509314007342994</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>171.3064480792181</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>91.28482570344798</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>60.96326325659241</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>90.92027051157625</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>30.90698584635157</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925928</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26450,13 +26450,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-263730.5861594793</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550649</v>
+        <v>326237.2930550652</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550645</v>
+        <v>326237.2930550646</v>
       </c>
       <c r="E6" t="n">
-        <v>-92855.87763941314</v>
+        <v>-91978.74550566285</v>
       </c>
       <c r="F6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712328</v>
       </c>
       <c r="G6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712329</v>
       </c>
       <c r="H6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="I6" t="n">
-        <v>432304.1588374828</v>
+        <v>433181.2909712323</v>
       </c>
       <c r="J6" t="n">
-        <v>255880.9396448903</v>
+        <v>256758.0717786397</v>
       </c>
       <c r="K6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712325</v>
       </c>
       <c r="L6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712325</v>
       </c>
       <c r="M6" t="n">
-        <v>297503.1436036456</v>
+        <v>298380.2757373953</v>
       </c>
       <c r="N6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="O6" t="n">
-        <v>432304.1588374833</v>
+        <v>433181.2909712324</v>
       </c>
       <c r="P6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712325</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>11.62584915701547</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>19.92444295008164</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>23.03118778159279</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1320929356348</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.8578157762261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>25.30078374722572</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
